--- a/medicine/Premiers secours et secourisme/Rince-œil/Rince-œil.xlsx
+++ b/medicine/Premiers secours et secourisme/Rince-œil/Rince-œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rince-%C5%93il</t>
+          <t>Rince-œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un rince-œil est un équipement de premiers secours servant à secourir des personnes ayant été chimiquement atteintes au niveau des yeux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rince-%C5%93il</t>
+          <t>Rince-œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son installation requiert un approvisionnement abondant en eau propre et pas trop froide, ainsi qu’un espace suffisant pour l’installer dans de bonnes conditions. À défaut, on lui préférera des flacons rince-œil.
 Il faut d'abord placer le rince-œil (ou la personne accidentée, lorsque le dispositif est fixe) aussi vite que possible de façon que les jets atteignent simultanément les yeux, puis déclencher un levier ou appuyer sur un bouton (selon les modèles) et laisser agir quelques minutes car l'absence ou la disparition de la douleur ne signifie pas que le problème est résolu.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rince-%C5%93il</t>
+          <t>Rince-œil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la douche fixe de premiers secours, le rince-œil doit être maintenu dégagé et vérifié périodiquement.
 </t>
